--- a/biology/Médecine/Un_monde_obèse/Un_monde_obèse.xlsx
+++ b/biology/Médecine/Un_monde_obèse/Un_monde_obèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un_monde_ob%C3%A8se</t>
+          <t>Un_monde_obèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un monde obèse est un téléfilm documentaire de 88 minutes sur l'obésité, ses causes et le rôle de l'industrie agro-alimentaire dans l'épidémie mondiale en cours.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Un_monde_ob%C3%A8se</t>
+          <t>Un_monde_obèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les prévisions des spécialistes, la moitié de la planète sera obèse ou en surpoids en 2030. L'obésité entraîne une augmentation très importante du diabète, des maladies cardio-vasculaires et de certains cancers. Le documentaire explore les causes de cette épidémie mondiale, qu’aucun pays n’est encore parvenu à enrayer.
 Les autorités publiques et les industriels de l'alimentation persistent à mettre d'abord en cause le manque d’activité physique ("Manger moins, bouger plus", privilégiant le rôle de la volonté individuelle de chacun.
 Les messages publicitaires et les messages de marketing ont évolué depuis 50 ans.
 À la fin des années 1970, ils mettent avant tout l'accent sur le gras, désigné comme responsable des maladies cardio-vasculaires. Ils promeuvent ensuite les céréales, riches en glucides et très subventionnées. Par ailleurs des produits transformés, allégés en matières grasses mais bourrés de sucre, au pouvoir addictif décuplé par le marketing, sont massivement diffusés.
-L’effet de satiété  de courte durée produit par le sucre, digéré rapidement joue un rôle majeur[1].
-De l'Allemagne au Chili et au Mexique, du Brésil au Canada, de la France aux États-Unis, les auteurs explorent les méthodes marketing de l'industrie agro-alimentaire, les mécanismes de dépendance du sucre, l'épidémie mondiale de diabète, les efforts législatifs de contrôle des lobbies et d'imposition d'étiquettes annonçant le contenu précis des produits, etc.[2]
-Ainsi le gouvernement chilien a mis en place des taxes sur les boissons sucrées, un étiquetage spécifique est obligatoire sur certains produits et pour ceux-là il  est interdit de faire de la publicité[3].
-Selon plusieurs scientifiques interviewés, l'industrie agro-alimentaire  a une grande responsabilité dans la progression de l’obésité, qui devrait affecter 250 millions d’enfants sur terre d’ici à 2030[1]. Les pouvoirs publics sont aussi mis en cause dans le documentaire : ceux ci ont souvent favorisé la diffusion du message selon lequel il suffit de « bouger » pour perdre des calories sans s’attaquer à la racine du problème[4].
+L’effet de satiété  de courte durée produit par le sucre, digéré rapidement joue un rôle majeur.
+De l'Allemagne au Chili et au Mexique, du Brésil au Canada, de la France aux États-Unis, les auteurs explorent les méthodes marketing de l'industrie agro-alimentaire, les mécanismes de dépendance du sucre, l'épidémie mondiale de diabète, les efforts législatifs de contrôle des lobbies et d'imposition d'étiquettes annonçant le contenu précis des produits, etc.
+Ainsi le gouvernement chilien a mis en place des taxes sur les boissons sucrées, un étiquetage spécifique est obligatoire sur certains produits et pour ceux-là il  est interdit de faire de la publicité.
+Selon plusieurs scientifiques interviewés, l'industrie agro-alimentaire  a une grande responsabilité dans la progression de l’obésité, qui devrait affecter 250 millions d’enfants sur terre d’ici à 2030. Les pouvoirs publics sont aussi mis en cause dans le documentaire : ceux ci ont souvent favorisé la diffusion du message selon lequel il suffit de « bouger » pour perdre des calories sans s’attaquer à la racine du problème.
 Les auteurs donnent la parole à des universitaires, des responsables politiques locaux (San Francisco) des jeunes rappeuses, des pasteurs, des militants associatifs de Foodwatch, etc. 
 </t>
         </is>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Un_monde_ob%C3%A8se</t>
+          <t>Un_monde_obèse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Liste de quelques-unes des personnes prenant la parole dans le documentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Delman Coates, pasteur qui avec un de ses collègues a engagé des poursuites contre Coca-Cola
 Jason Fung, médecin spécialiste du surpoids et du diabète.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Un_monde_ob%C3%A8se</t>
+          <t>Un_monde_obèse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Auteurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les auteurs sont[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les auteurs sont :
 Thierry de Lestrade
 Sylvie Gilman</t>
         </is>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Un_monde_ob%C3%A8se</t>
+          <t>Un_monde_obèse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,6 +634,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
